--- a/ej test.xlsx
+++ b/ej test.xlsx
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -185,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,9 +475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C9:C10"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +609,7 @@
         <f>+G6*H6</f>
         <v>32500</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <f>+G6</f>
         <v>50</v>
       </c>

--- a/ej test.xlsx
+++ b/ej test.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>compra</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>MODIFICAR Q STOCK DE ESTA POSICION</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -193,6 +202,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,11 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,9 +501,10 @@
     <col min="8" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -519,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -548,7 +559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -579,8 +590,11 @@
       <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -614,11 +628,14 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <f>+J6*J14</f>
+        <f>+J6*J15</f>
         <v>62500</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -652,26 +669,135 @@
         <v>40</v>
       </c>
       <c r="K7">
-        <f>+J7*J14</f>
+        <f>+J7*J15</f>
         <v>50000</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5">
+        <v>44489</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1200</v>
+      </c>
+      <c r="I8">
+        <f>+G8*H8</f>
+        <v>12000</v>
+      </c>
+      <c r="J8">
+        <f>-J7</f>
+        <v>-40</v>
+      </c>
+      <c r="K8">
+        <f>+J8*J16</f>
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+      <c r="J9">
+        <f>SUM(J6:J8)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="6" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
         <v>26</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>1250</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f>SUM(E17:E19)</f>
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <f>+F18-F19</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="8">
+        <f>+E20/3</f>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <f>-F27+F26</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ej test.xlsx
+++ b/ej test.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="5415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="CARGA DE DATOS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1'!$A$1:$I$2</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>compra</t>
   </si>
@@ -129,6 +130,87 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>ARTICULOS</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PAMPERS XG x58</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>PAMPERS</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>PREMIUM CARE</t>
+  </si>
+  <si>
+    <t>PAMPERS G x72</t>
+  </si>
+  <si>
+    <t>CONFORT SEC</t>
+  </si>
+  <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
+    <t>BABY CARICIAS</t>
+  </si>
+  <si>
+    <t>ESTRELLA G x44</t>
+  </si>
+  <si>
+    <t>ESTRELLA M x48</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
+  </si>
+  <si>
+    <t>DIA DE NACIMIENTO</t>
+  </si>
+  <si>
+    <t>MES DE NACIMIENTO</t>
+  </si>
+  <si>
+    <t>AÑO DE NACIMIENTO</t>
+  </si>
+  <si>
+    <t>Apellido: matrix</t>
+  </si>
+  <si>
+    <t>CUIL: 272876784</t>
+  </si>
+  <si>
+    <t>Domicilio: dwqd d565</t>
+  </si>
+  <si>
+    <t>Localidad: dwqd</t>
+  </si>
+  <si>
+    <t>Telefono: 1150247898</t>
+  </si>
+  <si>
+    <t>E-mail: dwqdd@fdf.vom</t>
+  </si>
+  <si>
+    <t>turno: ma¤ana</t>
+  </si>
+  <si>
+    <t>Sueldo: 1564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre: </t>
+  </si>
+  <si>
+    <t>PAMPERS XXL x56</t>
   </si>
 </sst>
 </file>
@@ -191,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -203,6 +285,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
@@ -804,4 +890,250 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="5">
+        <v>36321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5">
+        <f ca="1">+TODAY()</f>
+        <v>44507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2300</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>1999</v>
+      </c>
+      <c r="I4" s="10">
+        <f ca="1">+I3-I2</f>
+        <v>8186</v>
+      </c>
+      <c r="J4">
+        <f ca="1">+I4/365</f>
+        <v>22.427397260273974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1720</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="9">
+        <v>966</v>
+      </c>
+      <c r="L15">
+        <f>120000/12</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17">
+        <f>+LEN(F17)</f>
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <f>15*200</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19">
+        <f>+LEN(F19)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="9">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>